--- a/src/P07_af_all/T05_ml_auto_optuna/S02_combine_study.xlsx
+++ b/src/P07_af_all/T05_ml_auto_optuna/S02_combine_study.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9887545537318284</v>
+        <v>0.7966896151816436</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9887545537318284</v>
+        <v>0.7966896151816436</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02781002641768599</v>
+        <v>0.02810913046535446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9923694907094788</v>
+        <v>1.583823065743424</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003723402196346763</v>
+        <v>0.207410932137147</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002554827698333693</v>
+        <v>0.1969722420400667</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005417162741069221</v>
+        <v>0.02035390842995641</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09005886343945593, 'l1_ratio': 0.9932386863865048, 'fit_intercept': False, 'positive': False, 'max_iter': 3445, 'tol': 0.09115538440006302, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9925636839963121</v>
+        <v>0.8175370344112353</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9925636839963121</v>
+        <v>0.8175370344112353</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1004122055999968</v>
+        <v>0.0904453102051675</v>
       </c>
       <c r="L3" t="n">
-        <v>1.000162711611114</v>
+        <v>1.735803078748387</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00413697417373768</v>
+        <v>0.2362911583383701</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0007998703634062052</v>
+        <v>0.1779137605048677</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003562198442970419</v>
+        <v>0.03711976584159644</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09005886343945593, 'l1_ratio': 0.9932386863865048, 'fit_intercept': False, 'positive': False, 'max_iter': 3445, 'tol': 0.09115538440006302, 'selection': 'random', 'warm_start': True}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.995464371109828</v>
+        <v>0.8435716645385565</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>0.995464371109828</v>
+        <v>0.8435716645385565</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1202121766451393</v>
+        <v>0.09006608353768131</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9962584973988231</v>
+        <v>1.617623288605358</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003018722849137917</v>
+        <v>0.1104453428448847</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.00812402751141207</v>
+        <v>0.1426809513356038</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008615167794664751</v>
+        <v>0.02486686043019697</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9869179201510425</v>
+        <v>0.8262712775080462</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9869179201510425</v>
+        <v>0.8262712775080462</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0669145007553703</v>
+        <v>0.04485533453042503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9947999978964609</v>
+        <v>1.735822642645873</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007632114959383966</v>
+        <v>0.1440703424257609</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01278338096734114</v>
+        <v>0.170590986732384</v>
       </c>
       <c r="O5" t="n">
-        <v>0.009671917827368808</v>
+        <v>0.02104878112126941</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9886283917912778</v>
+        <v>0.7836030310023432</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9886283917912778</v>
+        <v>0.7836030310023432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03280019603928561</v>
+        <v>0.03278081413535074</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9945257591292531</v>
+        <v>11.93641147750259</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001625578848233021</v>
+        <v>7.928582670806682</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009483029010467627</v>
+        <v>0.2107404404658599</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003361950585332408</v>
+        <v>0.03938372221064817</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'alpha': 2.1106995036049625, 'l1_ratio': 0.21233911067827616, 'fit_intercept': False, 'positive': False, 'max_iter': 729, 'tol': 2.8585493941961936e-05, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 130, 'learning_rate': 0.01857349515585662, 'max_depth': 5, 'min_samples_split': 65, 'min_samples_leaf': 24, 'subsample': 0.8298767259821084, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8101821975336957</v>
+        <v>0.7762499452366584</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8101821975336957</v>
+        <v>0.7762499452366584</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02862564017487829</v>
+        <v>0.02621278354205168</v>
       </c>
       <c r="L7" t="n">
-        <v>1.809016949652921</v>
+        <v>1.609287560440178</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3597626135983527</v>
+        <v>0.2262588860008994</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1823400556149056</v>
+        <v>0.2176113007558465</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03406375463785308</v>
+        <v>0.01887800001624077</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 130, 'learning_rate': 0.01857349515585662, 'max_depth': 5, 'min_samples_split': 65, 'min_samples_leaf': 24, 'subsample': 0.8298767259821084, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 114, 'learning_rate': 0.024872994004092236, 'max_depth': 4, 'min_samples_split': 12, 'min_samples_leaf': 42, 'subsample': 0.9249569646343383, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8248105591566689</v>
+        <v>0.8024150473477678</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8248105591566689</v>
+        <v>0.8024150473477678</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08755257460681869</v>
+        <v>0.1038813372724041</v>
       </c>
       <c r="L8" t="n">
-        <v>2.072321223564714</v>
+        <v>1.859364717531313</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4247258998353365</v>
+        <v>0.2780518861197714</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1715969237968718</v>
+        <v>0.1953008743780753</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04485099481100967</v>
+        <v>0.05837712497155578</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 114, 'learning_rate': 0.024872994004092236, 'max_depth': 4, 'min_samples_split': 12, 'min_samples_leaf': 42, 'subsample': 0.9249569646343383, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 112, 'learning_rate': 0.020125302149841106, 'max_depth': 4, 'min_samples_split': 13, 'min_samples_leaf': 24, 'subsample': 0.6036998033239401, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.8370185261346249</v>
+        <v>0.820208606168754</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8370185261346249</v>
+        <v>0.820208606168754</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06259398878369894</v>
+        <v>0.08413114380754848</v>
       </c>
       <c r="L9" t="n">
-        <v>1.846255495856303</v>
+        <v>1.626848689506103</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1970812798345019</v>
+        <v>0.1097419904872968</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1433433372610654</v>
+        <v>0.1653579417762987</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04150375615014634</v>
+        <v>0.02486855740093797</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 112, 'learning_rate': 0.020125302149841106, 'max_depth': 4, 'min_samples_split': 13, 'min_samples_leaf': 24, 'subsample': 0.6036998033239401, 'max_features': 0.5, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'learning_rate': 0.011889469769530467, 'max_depth': 8, 'min_samples_split': 37, 'min_samples_leaf': 49, 'subsample': 0.9812236474710556, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 98, 'learning_rate': 0.023193151790732443, 'max_depth': 9, 'min_samples_split': 62, 'min_samples_leaf': 18, 'subsample': 0.694512069794444, 'max_features': 0.8, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8475556156453067</v>
+        <v>0.8059220266163812</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8475556156453067</v>
+        <v>0.8059220266163812</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04250149495847515</v>
+        <v>0.04919809157383941</v>
       </c>
       <c r="L10" t="n">
-        <v>1.548759999662137</v>
+        <v>2.084094972050088</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1910335938425928</v>
+        <v>0.4063532993975104</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1493369639350756</v>
+        <v>0.1895798257035602</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001147875070447755</v>
+        <v>0.009044603829040382</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 105, 'learning_rate': 0.011889469769530467, 'max_depth': 8, 'min_samples_split': 37, 'min_samples_leaf': 49, 'subsample': 0.9812236474710556, 'max_features': 1.0, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 98, 'learning_rate': 0.023193151790732443, 'max_depth': 9, 'min_samples_split': 62, 'min_samples_leaf': 18, 'subsample': 0.694512069794444, 'max_features': 0.8, 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 284, 'learning_rate': 0.011391084778738306, 'max_depth': 6, 'min_samples_split': 7, 'min_samples_leaf': 30, 'subsample': 0.7857474126903494, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.7992027572229982</v>
+        <v>0.7785512013389303</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7992027572229982</v>
+        <v>0.7785512013389303</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03492574131387975</v>
+        <v>0.0257050199018576</v>
       </c>
       <c r="L11" t="n">
-        <v>9.657721777088474</v>
+        <v>9.235118798257623</v>
       </c>
       <c r="M11" t="n">
-        <v>7.879809332978125</v>
+        <v>8.528231939328723</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1929056110176409</v>
+        <v>0.2131949647262293</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04457962151273552</v>
+        <v>0.03314086996319716</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 65, 'learning_rate': 0.0712818805840136, 'max_depth': 8, 'min_samples_split': 57, 'min_samples_leaf': 39, 'subsample': 0.7468977981821954, 'max_features': 1.0, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 284, 'learning_rate': 0.011391084778738306, 'max_depth': 6, 'min_samples_split': 7, 'min_samples_leaf': 30, 'subsample': 0.7857474126903494, 'max_features': 0.8, 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1142,36 +1142,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 53, 'p': 2, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8716656116014211</v>
+        <v>0.8690094691497628</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8716656116014211</v>
+        <v>0.8690094691497628</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02553499440199337</v>
+        <v>0.02039228177739822</v>
       </c>
       <c r="L12" t="n">
-        <v>1.623557213638964</v>
+        <v>1.554551461681433</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2400896601445135</v>
+        <v>0.1934515464255913</v>
       </c>
       <c r="N12" t="n">
-        <v>0.121006374447339</v>
+        <v>0.123756744951727</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02089388082812359</v>
+        <v>0.01747165106464753</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 53, 'p': 2, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1202,36 +1202,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 33, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 38, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9006263181769488</v>
+        <v>0.8860823382213079</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9006263181769488</v>
+        <v>0.8860823382213079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0978075508136235</v>
+        <v>0.1036832415645027</v>
       </c>
       <c r="L13" t="n">
-        <v>1.797245341322438</v>
+        <v>1.775499129599702</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3423545129608005</v>
+        <v>0.3385889841289439</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09564585910150546</v>
+        <v>0.111168760211827</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04328310280856541</v>
+        <v>0.02712973996141091</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 19, 'weights': 'uniform', 'algorithm': 'auto', 'leaf_size': 54, 'p': 2, 'metric': 'manhattan'}</t>
+          <t>{'n_neighbors': 33, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 38, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 36, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.9026239698313846</v>
+        <v>0.8918723976563711</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9026239698313846</v>
+        <v>0.8918723976563711</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1083576132509153</v>
+        <v>0.1123870470157046</v>
       </c>
       <c r="L14" t="n">
-        <v>1.594079622140465</v>
+        <v>1.471911576306177</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1473797603989517</v>
+        <v>0.09324465248148417</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0808785173495674</v>
+        <v>0.09555982025505348</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01076724608108034</v>
+        <v>0.0116929865982307</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 36, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1322,36 +1322,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.906821889609145</v>
+        <v>0.8889846439800628</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J15" t="n">
-        <v>0.906821889609145</v>
+        <v>0.8889846439800628</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05663784970171815</v>
+        <v>0.04840265700737647</v>
       </c>
       <c r="L15" t="n">
-        <v>2.110071780938665</v>
+        <v>2.017648462989173</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2989102526553339</v>
+        <v>0.2882157349188919</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09071597323456448</v>
+        <v>0.1087449878247133</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00981027300402903</v>
+        <v>0.007757137745218733</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1382,36 +1382,36 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 40, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8635731665105869</v>
+        <v>0.838296605033266</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8635731665105869</v>
+        <v>0.838296605033266</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03103014565144294</v>
+        <v>0.02348620780346346</v>
       </c>
       <c r="L16" t="n">
-        <v>12.0822346892286</v>
+        <v>11.69138267148387</v>
       </c>
       <c r="M16" t="n">
-        <v>8.506805389445303</v>
+        <v>9.830375187475735</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1314947468051538</v>
+        <v>0.1588008605512077</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02330907025927792</v>
+        <v>0.008458644011121933</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 18, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 26, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 40, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'euclidean'}</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1442,36 +1442,36 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'n_estimators': 53, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 69, 'max_depth': 4, 'min_samples_split': 41, 'min_samples_leaf': 13, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7891674618235264</v>
+        <v>0.7808599550140586</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7891674618235264</v>
+        <v>0.7808599550140586</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03048669096178845</v>
+        <v>0.02788132599176595</v>
       </c>
       <c r="L17" t="n">
-        <v>1.675432509290057</v>
+        <v>1.608788720793292</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2074736838770738</v>
+        <v>0.1679045157463788</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2050126161033504</v>
+        <v>0.2132372978282845</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01199029160575674</v>
+        <v>0.009231874031905901</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'n_estimators': 53, 'max_depth': 5, 'min_samples_split': 4, 'min_samples_leaf': 17, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 69, 'max_depth': 4, 'min_samples_split': 41, 'min_samples_leaf': 13, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1502,36 +1502,36 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 62, 'max_depth': 9, 'min_samples_split': 14, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8055291194685981</v>
+        <v>0.8006831630900703</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8055291194685981</v>
+        <v>0.8006831630900703</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1012806405408545</v>
+        <v>0.1027660876463232</v>
       </c>
       <c r="L18" t="n">
-        <v>1.716042670965027</v>
+        <v>1.713550573360186</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2744156782940023</v>
+        <v>0.2270853499752681</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1918383033766529</v>
+        <v>0.1971506028144004</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04503877381504166</v>
+        <v>0.05598597710920513</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 62, 'max_depth': 9, 'min_samples_split': 14, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1562,36 +1562,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'n_estimators': 75, 'max_depth': 3, 'min_samples_split': 31, 'min_samples_leaf': 9, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 99, 'max_depth': 30, 'min_samples_split': 16, 'min_samples_leaf': 3, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.8372865861466275</v>
+        <v>0.819754772368701</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8372865861466275</v>
+        <v>0.819754772368701</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1017816125918876</v>
+        <v>0.09293827477740628</v>
       </c>
       <c r="L19" t="n">
-        <v>1.322001551549411</v>
+        <v>1.547802672969146</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1162327433992779</v>
+        <v>0.1068007972514385</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1517619574672248</v>
+        <v>0.1662457479135762</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0144082728443708</v>
+        <v>0.01976088873773118</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'n_estimators': 75, 'max_depth': 3, 'min_samples_split': 31, 'min_samples_leaf': 9, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 99, 'max_depth': 30, 'min_samples_split': 16, 'min_samples_leaf': 3, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1622,36 +1622,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 50, 'max_depth': 28, 'min_samples_split': 11, 'min_samples_leaf': 28, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8282686927701349</v>
+        <v>0.8168417157779867</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8282686927701349</v>
+        <v>0.8168417157779867</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04825413022503983</v>
+        <v>0.05427110247477469</v>
       </c>
       <c r="L20" t="n">
-        <v>1.906249300335624</v>
+        <v>1.83019614362389</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4200662682939174</v>
+        <v>0.3270546441446941</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1677246608047994</v>
+        <v>0.180113776173616</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01012071760536077</v>
+        <v>0.02153786295888985</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 50, 'max_depth': 28, 'min_samples_split': 11, 'min_samples_leaf': 28, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1682,36 +1682,36 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 55, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 20, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7830861150471439</v>
+        <v>0.7771177011720128</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7830861150471439</v>
+        <v>0.7771177011720128</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03401055828590652</v>
+        <v>0.03477255788723564</v>
       </c>
       <c r="L21" t="n">
-        <v>10.88907588716944</v>
+        <v>10.31018239680416</v>
       </c>
       <c r="M21" t="n">
-        <v>9.21553688987828</v>
+        <v>8.734055514238859</v>
       </c>
       <c r="N21" t="n">
-        <v>0.210870994850106</v>
+        <v>0.2145617532655328</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02417616006960495</v>
+        <v>0.04742642748906738</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'n_estimators': 56, 'max_depth': 5, 'min_samples_split': 16, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 55, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 20, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1742,36 +1742,36 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.35230070424775145, 'epsilon': 7.751419707674408e-06, 'gamma_choice': 'auto', 'coef0': -0.30743177059017857, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.9059645874117321</v>
+        <v>0.8451227546523431</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9059645874117321</v>
+        <v>0.8451227546523431</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02750156184478127</v>
+        <v>0.02991825135553185</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13394539624409</v>
+        <v>1.652371316320884</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03299708183022704</v>
+        <v>0.202534366674922</v>
       </c>
       <c r="N22" t="n">
-        <v>0.08621379963530247</v>
+        <v>0.1480611831211874</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008447978298093968</v>
+        <v>0.008492008186287831</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.35230070424775145, 'gamma': 'auto', 'epsilon': 7.751419707674408e-06, 'coef0': -0.30743177059017857, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1802,36 +1802,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.3287863428777476, 'epsilon': 1.4818831326477788e-05, 'gamma_choice': 'scale', 'coef0': -0.538141705410821, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.9088798703222608</v>
+        <v>0.8433970032719503</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9088798703222608</v>
+        <v>0.8433970032719503</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09857611685949598</v>
+        <v>0.0871846056354677</v>
       </c>
       <c r="L23" t="n">
-        <v>1.344290878253111</v>
+        <v>1.956667105610299</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1528909776659713</v>
+        <v>0.4275455396792867</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08673534020994504</v>
+        <v>0.1520422307088823</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02090085536417338</v>
+        <v>0.02315311963595655</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.3287863428777476, 'gamma': 'scale', 'epsilon': 1.4818831326477788e-05, 'coef0': -0.538141705410821, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1862,36 +1862,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.21139076078102745, 'epsilon': 5.978231336303152e-06, 'gamma_choice': 'scale', 'coef0': -0.4531960191299992, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9166686314785416</v>
+        <v>0.8588999324567802</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9166686314785416</v>
+        <v>0.8588999324567802</v>
       </c>
       <c r="K24" t="n">
-        <v>0.12794126873498</v>
+        <v>0.1118889735828927</v>
       </c>
       <c r="L24" t="n">
-        <v>1.260560213909603</v>
+        <v>1.557844551347287</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1838516255072423</v>
+        <v>0.2150530386919809</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07412201578577614</v>
+        <v>0.1280475544719849</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03372892252078546</v>
+        <v>0.03313894494097047</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.21139076078102745, 'gamma': 'scale', 'epsilon': 5.978231336303152e-06, 'coef0': -0.4531960191299992, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -1922,36 +1922,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.22453698260657107, 'epsilon': 3.317648491240437e-05, 'gamma_choice': 'scale', 'coef0': -0.23779571627151505, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.9067508279598414</v>
+        <v>0.8498606355389832</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9067508279598414</v>
+        <v>0.8498606355389832</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05641716483048762</v>
+        <v>0.04240162536157204</v>
       </c>
       <c r="L25" t="n">
-        <v>1.397428818076956</v>
+        <v>1.854073498980245</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2801928970611561</v>
+        <v>0.3030092218337</v>
       </c>
       <c r="N25" t="n">
-        <v>0.09244761139705887</v>
+        <v>0.1487791451020275</v>
       </c>
       <c r="O25" t="n">
-        <v>0.012768007597144</v>
+        <v>0.02174565454776201</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.22453698260657107, 'gamma': 'scale', 'epsilon': 3.317648491240437e-05, 'coef0': -0.23779571627151505, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-26_09-45</t>
+          <t>2026-01-26_10-44</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -1982,36 +1982,336 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.2144666527634061, 'epsilon': 5.09308766972865e-05, 'gamma_choice': 'scale', 'coef0': 0.19659173375221112, 'shrinking': True}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.8678558463065221</v>
+        <v>0.7968615424157307</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8678558463065221</v>
+        <v>0.7968615424157307</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02693893715345216</v>
+        <v>0.02729595900773901</v>
       </c>
       <c r="L26" t="n">
-        <v>6.209711935377796</v>
+        <v>8.896247420933159</v>
       </c>
       <c r="M26" t="n">
-        <v>4.080732248219864</v>
+        <v>5.580582786277521</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1289524213996713</v>
+        <v>0.19787078641045</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007861501292709032</v>
+        <v>0.01108898876834409</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'sigmoid', 'C': 0.2144666527634061, 'gamma': 'scale', 'epsilon': 5.09308766972865e-05, 'coef0': 0.19659173375221112, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-1_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-01-26_10-44</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 235, 'max_depth': 3, 'learning_rate': 0.0069666444515065346, 'subsample': 0.9648453000953419, 'colsample_bytree': 0.43832629477828994, 'colsample_bylevel': 0.692200464594403, 'gamma': 0.4745876303848796, 'min_child_weight': 0.0052118564523263725, 'reg_alpha': 0.4574747313585391, 'reg_lambda': 2.244226246252965e-08, 'booster': 'dart', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.7869871956140969</v>
+      </c>
+      <c r="I27" t="n">
+        <v>40</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7869871956140969</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02504925197579138</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.541204771484801</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1943726013356549</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.206562986381255</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.02093840802785135</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 235, 'max_depth': 3, 'learning_rate': 0.0069666444515065346, 'subsample': 0.9648453000953419, 'colsample_bytree': 0.43832629477828994, 'colsample_bylevel': 0.692200464594403, 'gamma': 0.4745876303848796, 'min_child_weight': 0.0052118564523263725, 'reg_alpha': 0.4574747313585391, 'reg_lambda': 2.244226246252965e-08, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-2_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-01-26_10-44</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 121, 'max_depth': 8, 'learning_rate': 0.049699248487562936, 'subsample': 0.6284446583624685, 'colsample_bytree': 0.740850281730517, 'colsample_bylevel': 0.9283285712599257, 'gamma': 6.430002522260205, 'min_child_weight': 0.551242720822112, 'reg_alpha': 8.255030628079501e-05, 'reg_lambda': 0.0018646554664663838, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8014479344046852</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8014479344046852</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.09282107832496149</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.739895099735391</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2770441816220003</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1947128167452576</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.04890268466121082</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 121, 'max_depth': 8, 'learning_rate': 0.049699248487562936, 'subsample': 0.6284446583624685, 'colsample_bytree': 0.740850281730517, 'colsample_bylevel': 0.9283285712599257, 'gamma': 6.430002522260205, 'min_child_weight': 0.551242720822112, 'reg_alpha': 8.255030628079501e-05, 'reg_lambda': 0.0018646554664663838, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-3_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-01-26_10-44</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 142, 'max_depth': 8, 'learning_rate': 0.03287411811126145, 'subsample': 0.4429280904522769, 'colsample_bytree': 0.7469687983349775, 'colsample_bylevel': 0.8512657078317415, 'gamma': 6.003374443754199, 'min_child_weight': 0.005156211068347959, 'reg_alpha': 0.13209896776551622, 'reg_lambda': 3.6293737137802057e-07, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.813065376067994</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.813065376067994</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.09375368971106721</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.668656109356861</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1129178015147136</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1733750862889767</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01675583429764993</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 142, 'max_depth': 8, 'learning_rate': 0.03287411811126145, 'subsample': 0.4429280904522769, 'colsample_bytree': 0.7469687983349775, 'colsample_bylevel': 0.8512657078317415, 'gamma': 6.003374443754199, 'min_child_weight': 0.005156211068347959, 'reg_alpha': 0.13209896776551622, 'reg_lambda': 3.6293737137802057e-07, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-4_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-01-26_10-44</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 179, 'max_depth': 7, 'learning_rate': 0.016418390799027655, 'subsample': 0.7394189127405425, 'colsample_bytree': 0.7853441222725355, 'colsample_bylevel': 0.7795889624404623, 'gamma': 6.736248461916689, 'min_child_weight': 0.05567013404616536, 'reg_alpha': 0.32525317608028614, 'reg_lambda': 0.39773688078320824, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.811514598007268</v>
+      </c>
+      <c r="I30" t="n">
+        <v>40</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.811514598007268</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0532127117235567</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.620115260975679</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.2634495706458497</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.186404849832183</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0145027515328353</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 179, 'max_depth': 7, 'learning_rate': 0.016418390799027655, 'subsample': 0.7394189127405425, 'colsample_bytree': 0.7853441222725355, 'colsample_bylevel': 0.7795889624404623, 'gamma': 6.736248461916689, 'min_child_weight': 0.05567013404616536, 'reg_alpha': 0.32525317608028614, 'reg_lambda': 0.39773688078320824, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>study_XGBR_RS-5_TS-0_3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-01-26_10-44</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx'}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7679774997450379</v>
+      </c>
+      <c r="I31" t="n">
+        <v>40</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7679774997450379</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0241598401146674</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13.86979426703989</v>
+      </c>
+      <c r="M31" t="n">
+        <v>15.17095717228193</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2238723025340255</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.03227546606421297</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'n_estimators': 65, 'max_depth': 9, 'learning_rate': 0.11044350847124683, 'subsample': 0.6928940382986473, 'colsample_bytree': 0.8396770259681927, 'colsample_bylevel': 0.6456569174550735, 'gamma': 5.227328293819941, 'min_child_weight': 0.05130551760589835, 'reg_alpha': 1.6934490731313353e-08, 'reg_lambda': 9.354548757337708e-08, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>

--- a/src/P07_af_all/T05_ml_auto_optuna/S02_combine_study.xlsx
+++ b/src/P07_af_all/T05_ml_auto_optuna/S02_combine_study.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -542,36 +542,36 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10271312767382872, 'l1_ratio': 0.6122489442040966, 'fit_intercept': False, 'positive': False, 'max_iter': 9530, 'tol': 9.189121662905118e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7966896151816436</v>
+        <v>0.8044099207686722</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7966896151816436</v>
+        <v>0.8044099207686722</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02810913046535446</v>
+        <v>0.009839269646588843</v>
       </c>
       <c r="L2" t="n">
-        <v>1.583823065743424</v>
+        <v>1.539510645753514</v>
       </c>
       <c r="M2" t="n">
-        <v>0.207410932137147</v>
+        <v>0.1911471050146749</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1969722420400667</v>
+        <v>0.1887137516092132</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02035390842995641</v>
+        <v>0.01320950821997918</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'alpha': 0.10237815206681478, 'l1_ratio': 0.6227715332133358, 'fit_intercept': False, 'positive': False, 'max_iter': 3857, 'tol': 2.1234729449037035e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10271312767382872, 'l1_ratio': 0.6122489442040966, 'fit_intercept': False, 'positive': False, 'max_iter': 9530, 'tol': 9.189121662905118e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -602,36 +602,36 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09005886343945593, 'l1_ratio': 0.9932386863865048, 'fit_intercept': False, 'positive': False, 'max_iter': 3445, 'tol': 0.09115538440006302, 'selection': 'random', 'warm_start': True}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8175370344112353</v>
+        <v>0.8206212543958836</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8175370344112353</v>
+        <v>0.8206212543958836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0904453102051675</v>
+        <v>0.08287028273157881</v>
       </c>
       <c r="L3" t="n">
-        <v>1.735803078748387</v>
+        <v>1.86078499199688</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2362911583383701</v>
+        <v>0.3060670101520678</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1779137605048677</v>
+        <v>0.1736485440928647</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03711976584159644</v>
+        <v>0.03824888566567883</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09005886343945593, 'l1_ratio': 0.9932386863865048, 'fit_intercept': False, 'positive': False, 'max_iter': 3445, 'tol': 0.09115538440006302, 'selection': 'random', 'warm_start': True}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -662,36 +662,36 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8435716645385565</v>
+        <v>0.8437202925894032</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8435716645385565</v>
+        <v>0.8437202925894032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09006608353768131</v>
+        <v>0.1030872644122824</v>
       </c>
       <c r="L4" t="n">
-        <v>1.617623288605358</v>
+        <v>1.547594639742998</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1104453428448847</v>
+        <v>0.2103298530039722</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1426809513356038</v>
+        <v>0.1449148269233652</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02486686043019697</v>
+        <v>0.009084732253072898</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -722,36 +722,36 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8262712775080462</v>
+        <v>0.8086260753612405</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8262712775080462</v>
+        <v>0.8086260753612405</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04485533453042503</v>
+        <v>0.03713410260458461</v>
       </c>
       <c r="L5" t="n">
-        <v>1.735822642645873</v>
+        <v>1.819717878849746</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1440703424257609</v>
+        <v>0.2187111181461351</v>
       </c>
       <c r="N5" t="n">
-        <v>0.170590986732384</v>
+        <v>0.1873414427514286</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02104878112126941</v>
+        <v>0.01767826431549605</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'alpha': 0.09325696313284186, 'l1_ratio': 0.892740898084912, 'fit_intercept': False, 'positive': False, 'max_iter': 2459, 'tol': 2.480003395892614e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -782,36 +782,36 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10271312767382872, 'l1_ratio': 0.6122489442040966, 'fit_intercept': False, 'positive': False, 'max_iter': 9530, 'tol': 9.189121662905118e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7836030310023432</v>
+        <v>0.771055471188919</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7836030310023432</v>
+        <v>0.771055471188919</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03278081413535074</v>
+        <v>0.01789225089371858</v>
       </c>
       <c r="L6" t="n">
-        <v>11.93641147750259</v>
+        <v>8.642494397745503</v>
       </c>
       <c r="M6" t="n">
-        <v>7.928582670806682</v>
+        <v>6.919971663848879</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2107404404658599</v>
+        <v>0.2232454297841504</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03938372221064817</v>
+        <v>0.0269365471233362</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'alpha': 0.13547865931877767, 'l1_ratio': 0.4264510492026294, 'fit_intercept': False, 'positive': False, 'max_iter': 3032, 'tol': 1.33537456273735e-06, 'selection': 'cyclic', 'warm_start': False}</t>
+          <t>{'alpha': 0.10271312767382872, 'l1_ratio': 0.6122489442040966, 'fit_intercept': False, 'positive': False, 'max_iter': 9530, 'tol': 9.189121662905118e-05, 'selection': 'cyclic', 'warm_start': False}</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -842,36 +842,36 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'learning_rate': 0.01857349515585662, 'max_depth': 5, 'min_samples_split': 65, 'min_samples_leaf': 24, 'subsample': 0.8298767259821084, 'max_features': 0.5, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 53, 'learning_rate': 0.08288075176264155, 'max_depth': 3, 'min_samples_split': 83, 'min_samples_leaf': 31, 'subsample': 0.7767271202147692, 'max_features': 'sqrt', 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7762499452366584</v>
+        <v>0.7778011142689186</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7762499452366584</v>
+        <v>0.7778011142689186</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02621278354205168</v>
+        <v>0.0142540233033407</v>
       </c>
       <c r="L7" t="n">
-        <v>1.609287560440178</v>
+        <v>1.636348895549423</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2262588860008994</v>
+        <v>0.3180841970551148</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2176113007558465</v>
+        <v>0.2157349800162263</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01887800001624077</v>
+        <v>0.02076345941643795</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'n_estimators': 130, 'learning_rate': 0.01857349515585662, 'max_depth': 5, 'min_samples_split': 65, 'min_samples_leaf': 24, 'subsample': 0.8298767259821084, 'max_features': 0.5, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 53, 'learning_rate': 0.08288075176264155, 'max_depth': 3, 'min_samples_split': 83, 'min_samples_leaf': 31, 'subsample': 0.7767271202147692, 'max_features': 'sqrt', 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -902,36 +902,36 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 114, 'learning_rate': 0.024872994004092236, 'max_depth': 4, 'min_samples_split': 12, 'min_samples_leaf': 42, 'subsample': 0.9249569646343383, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 121, 'learning_rate': 0.024262886259449876, 'max_depth': 4, 'min_samples_split': 9, 'min_samples_leaf': 19, 'subsample': 0.564286035042707, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.8024150473477678</v>
+        <v>0.8008247535677705</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8024150473477678</v>
+        <v>0.8008247535677705</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1038813372724041</v>
+        <v>0.08845731223626317</v>
       </c>
       <c r="L8" t="n">
-        <v>1.859364717531313</v>
+        <v>1.862379855296348</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2780518861197714</v>
+        <v>0.3256192733612703</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1953008743780753</v>
+        <v>0.1956186943374721</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05837712497155578</v>
+        <v>0.0457211282297</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 114, 'learning_rate': 0.024872994004092236, 'max_depth': 4, 'min_samples_split': 12, 'min_samples_leaf': 42, 'subsample': 0.9249569646343383, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 121, 'learning_rate': 0.024262886259449876, 'max_depth': 4, 'min_samples_split': 9, 'min_samples_leaf': 19, 'subsample': 0.564286035042707, 'max_features': 'sqrt', 'loss': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -962,36 +962,36 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 112, 'learning_rate': 0.020125302149841106, 'max_depth': 4, 'min_samples_split': 13, 'min_samples_leaf': 24, 'subsample': 0.6036998033239401, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 101, 'learning_rate': 0.10353461615550495, 'max_depth': 1, 'min_samples_split': 96, 'min_samples_leaf': 20, 'subsample': 0.9317818767712766, 'max_features': 'sqrt', 'loss': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.820208606168754</v>
+        <v>0.8123327237606911</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
       </c>
       <c r="J9" t="n">
-        <v>0.820208606168754</v>
+        <v>0.8123327237606911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08413114380754848</v>
+        <v>0.09871752185017546</v>
       </c>
       <c r="L9" t="n">
-        <v>1.626848689506103</v>
+        <v>1.490857083458216</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1097419904872968</v>
+        <v>0.1410220731023847</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1653579417762987</v>
+        <v>0.1732468662653877</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02486855740093797</v>
+        <v>0.02869511850955394</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'n_estimators': 112, 'learning_rate': 0.020125302149841106, 'max_depth': 4, 'min_samples_split': 13, 'min_samples_leaf': 24, 'subsample': 0.6036998033239401, 'max_features': 0.5, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 101, 'learning_rate': 0.10353461615550495, 'max_depth': 1, 'min_samples_split': 96, 'min_samples_leaf': 20, 'subsample': 0.9317818767712766, 'max_features': 'sqrt', 'loss': 'absolute_error'}</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1022,36 +1022,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'learning_rate': 0.023193151790732443, 'max_depth': 9, 'min_samples_split': 62, 'min_samples_leaf': 18, 'subsample': 0.694512069794444, 'max_features': 0.8, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 223, 'learning_rate': 0.008968473205787492, 'max_depth': 9, 'min_samples_split': 54, 'min_samples_leaf': 29, 'subsample': 0.7835388843399697, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8059220266163812</v>
+        <v>0.8053835618425819</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8059220266163812</v>
+        <v>0.8053835618425819</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04919809157383941</v>
+        <v>0.05436536006065187</v>
       </c>
       <c r="L10" t="n">
-        <v>2.084094972050088</v>
+        <v>1.893655690909265</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4063532993975104</v>
+        <v>0.3219649383975802</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1895798257035602</v>
+        <v>0.1913249826314574</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009044603829040382</v>
+        <v>0.01660124444821326</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>{'n_estimators': 98, 'learning_rate': 0.023193151790732443, 'max_depth': 9, 'min_samples_split': 62, 'min_samples_leaf': 18, 'subsample': 0.694512069794444, 'max_features': 0.8, 'loss': 'huber'}</t>
+          <t>{'n_estimators': 223, 'learning_rate': 0.008968473205787492, 'max_depth': 9, 'min_samples_split': 54, 'min_samples_leaf': 29, 'subsample': 0.7835388843399697, 'max_features': 0.5, 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1082,36 +1082,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 284, 'learning_rate': 0.011391084778738306, 'max_depth': 6, 'min_samples_split': 7, 'min_samples_leaf': 30, 'subsample': 0.7857474126903494, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 155, 'learning_rate': 0.03768084973550332, 'max_depth': 7, 'min_samples_split': 64, 'min_samples_leaf': 39, 'subsample': 0.7402681112982366, 'max_features': 'sqrt', 'loss': 'huber'}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.7785512013389303</v>
+        <v>0.768167959938212</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7785512013389303</v>
+        <v>0.768167959938212</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0257050199018576</v>
+        <v>0.02328208210317913</v>
       </c>
       <c r="L11" t="n">
-        <v>9.235118798257623</v>
+        <v>10.74308783314128</v>
       </c>
       <c r="M11" t="n">
-        <v>8.528231939328723</v>
+        <v>9.228423696357821</v>
       </c>
       <c r="N11" t="n">
-        <v>0.2131949647262293</v>
+        <v>0.2245475742008182</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03314086996319716</v>
+        <v>0.03569688522470127</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'n_estimators': 284, 'learning_rate': 0.011391084778738306, 'max_depth': 6, 'min_samples_split': 7, 'min_samples_leaf': 30, 'subsample': 0.7857474126903494, 'max_features': 0.8, 'loss': 'squared_error'}</t>
+          <t>{'n_estimators': 155, 'learning_rate': 0.03768084973550332, 'max_depth': 7, 'min_samples_split': 64, 'min_samples_leaf': 39, 'subsample': 0.7402681112982366, 'max_features': 'sqrt', 'loss': 'huber'}</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1142,36 +1142,36 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 53, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8690094691497628</v>
+        <v>0.8509761578227938</v>
       </c>
       <c r="I12" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8690094691497628</v>
+        <v>0.8509761578227938</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02039228177739822</v>
+        <v>0.02631400660184828</v>
       </c>
       <c r="L12" t="n">
-        <v>1.554551461681433</v>
+        <v>1.424038317452689</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1934515464255913</v>
+        <v>0.1525049279990586</v>
       </c>
       <c r="N12" t="n">
-        <v>0.123756744951727</v>
+        <v>0.1417319762295939</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01747165106464753</v>
+        <v>0.02035156065936083</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 25, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 53, 'p': 2, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1202,36 +1202,36 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 33, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 38, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 38, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 45, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8860823382213079</v>
+        <v>0.877670453682612</v>
       </c>
       <c r="I13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8860823382213079</v>
+        <v>0.877670453682612</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1036832415645027</v>
+        <v>0.1075633032974305</v>
       </c>
       <c r="L13" t="n">
-        <v>1.775499129599702</v>
+        <v>1.838474285507104</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3385889841289439</v>
+        <v>0.379394276570243</v>
       </c>
       <c r="N13" t="n">
-        <v>0.111168760211827</v>
+        <v>0.1192951800726813</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02712973996141091</v>
+        <v>0.03644929388819679</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 33, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 38, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 38, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 45, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -1262,36 +1262,36 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 36, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 43, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 31, 'p': 1, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8918723976563711</v>
+        <v>0.8825501817320082</v>
       </c>
       <c r="I14" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8918723976563711</v>
+        <v>0.8825501817320082</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1123870470157046</v>
+        <v>0.1189558301727434</v>
       </c>
       <c r="L14" t="n">
-        <v>1.471911576306177</v>
+        <v>1.487243109225888</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09324465248148417</v>
+        <v>0.02457293241253972</v>
       </c>
       <c r="N14" t="n">
-        <v>0.09555982025505348</v>
+        <v>0.1067062558470527</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0116929865982307</v>
+        <v>0.01858204338436768</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 27, 'weights': 'distance', 'algorithm': 'kd_tree', 'leaf_size': 36, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 43, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 31, 'p': 1, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -1322,36 +1322,36 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 2, 'metric': 'minkowski'}</t>
+          <t>{'n_neighbors': 44, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 50, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8889846439800628</v>
+        <v>0.8639369268992633</v>
       </c>
       <c r="I15" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8889846439800628</v>
+        <v>0.8639369268992633</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04840265700737647</v>
+        <v>0.05132243696293958</v>
       </c>
       <c r="L15" t="n">
-        <v>2.017648462989173</v>
+        <v>1.587497092989993</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2882157349188919</v>
+        <v>0.1917821567346031</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1087449878247133</v>
+        <v>0.1347948351252523</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007757137745218733</v>
+        <v>0.01083041819401985</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 24, 'weights': 'distance', 'algorithm': 'ball_tree', 'leaf_size': 58, 'p': 2, 'metric': 'minkowski'}</t>
+          <t>{'n_neighbors': 44, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 50, 'p': 2, 'metric': 'minkowski'}</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1382,36 +1382,36 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 40, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.838296605033266</v>
+        <v>0.8348120214916896</v>
       </c>
       <c r="I16" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>0.838296605033266</v>
+        <v>0.8348120214916896</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02348620780346346</v>
+        <v>0.01679366924072597</v>
       </c>
       <c r="L16" t="n">
-        <v>11.69138267148387</v>
+        <v>11.92988400428663</v>
       </c>
       <c r="M16" t="n">
-        <v>9.830375187475735</v>
+        <v>10.82673030756985</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1588008605512077</v>
+        <v>0.1613201077232721</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008458644011121933</v>
+        <v>0.01158797707442449</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'n_neighbors': 40, 'weights': 'distance', 'algorithm': 'brute', 'leaf_size': 48, 'p': 1, 'metric': 'euclidean'}</t>
+          <t>{'n_neighbors': 46, 'weights': 'distance', 'algorithm': 'auto', 'leaf_size': 18, 'p': 2, 'metric': 'manhattan'}</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1442,36 +1442,36 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'n_estimators': 69, 'max_depth': 4, 'min_samples_split': 41, 'min_samples_leaf': 13, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 59, 'max_depth': 7, 'min_samples_split': 8, 'min_samples_leaf': 26, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7808599550140586</v>
+        <v>0.7670431385535824</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7808599550140586</v>
+        <v>0.7670431385535824</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02788132599176595</v>
+        <v>0.0392136706322589</v>
       </c>
       <c r="L17" t="n">
-        <v>1.608788720793292</v>
+        <v>1.595939624886162</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1679045157463788</v>
+        <v>0.1665804574903266</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2132372978282845</v>
+        <v>0.2273683613728247</v>
       </c>
       <c r="O17" t="n">
-        <v>0.009231874031905901</v>
+        <v>0.02664929444971793</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'n_estimators': 69, 'max_depth': 4, 'min_samples_split': 41, 'min_samples_leaf': 13, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 59, 'max_depth': 7, 'min_samples_split': 8, 'min_samples_leaf': 26, 'max_features': 0.5, 'bootstrap': False, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1502,36 +1502,36 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'n_estimators': 62, 'max_depth': 9, 'min_samples_split': 14, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 100, 'max_depth': 94, 'min_samples_split': 23, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.8006831630900703</v>
+        <v>0.7954243330245165</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8006831630900703</v>
+        <v>0.7954243330245165</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1027660876463232</v>
+        <v>0.08601884568260404</v>
       </c>
       <c r="L18" t="n">
-        <v>1.713550573360186</v>
+        <v>1.969046897224871</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2270853499752681</v>
+        <v>0.3815605986432293</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1971506028144004</v>
+        <v>0.200604415441319</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05598597710920513</v>
+        <v>0.04816377149648815</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'n_estimators': 62, 'max_depth': 9, 'min_samples_split': 14, 'min_samples_leaf': 27, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 100, 'max_depth': 94, 'min_samples_split': 23, 'min_samples_leaf': 8, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1562,36 +1562,36 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'n_estimators': 99, 'max_depth': 30, 'min_samples_split': 16, 'min_samples_leaf': 3, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 84, 'max_depth': 44, 'min_samples_split': 41, 'min_samples_leaf': 22, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.819754772368701</v>
+        <v>0.811624359032558</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
       </c>
       <c r="J19" t="n">
-        <v>0.819754772368701</v>
+        <v>0.811624359032558</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09293827477740628</v>
+        <v>0.09050725071679541</v>
       </c>
       <c r="L19" t="n">
-        <v>1.547802672969146</v>
+        <v>1.552026889011935</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1068007972514385</v>
+        <v>0.234101809815258</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1662457479135762</v>
+        <v>0.175492337908422</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01976088873773118</v>
+        <v>0.01822550632210531</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'n_estimators': 99, 'max_depth': 30, 'min_samples_split': 16, 'min_samples_leaf': 3, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'absolute_error'}</t>
+          <t>{'n_estimators': 84, 'max_depth': 44, 'min_samples_split': 41, 'min_samples_leaf': 22, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -1622,36 +1622,36 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_depth': 28, 'min_samples_split': 11, 'min_samples_leaf': 28, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 82, 'max_depth': 27, 'min_samples_split': 8, 'min_samples_leaf': 15, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8168417157779867</v>
+        <v>0.7928336692521167</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8168417157779867</v>
+        <v>0.7928336692521167</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05427110247477469</v>
+        <v>0.04180883096988179</v>
       </c>
       <c r="L20" t="n">
-        <v>1.83019614362389</v>
+        <v>1.802298514015056</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3270546441446941</v>
+        <v>0.3048483444397428</v>
       </c>
       <c r="N20" t="n">
-        <v>0.180113776173616</v>
+        <v>0.2043004796329174</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02153786295888985</v>
+        <v>0.00417071064695255</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'max_depth': 28, 'min_samples_split': 11, 'min_samples_leaf': 28, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 82, 'max_depth': 27, 'min_samples_split': 8, 'min_samples_leaf': 15, 'max_features': 0.2, 'bootstrap': True, 'criterion': 'squared_error'}</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-32</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1682,36 +1682,36 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'n_estimators': 55, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 20, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 57, 'max_depth': 12, 'min_samples_split': 17, 'min_samples_leaf': 18, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.7771177011720128</v>
+        <v>0.7579121778254511</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7771177011720128</v>
+        <v>0.7579121778254511</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03477255788723564</v>
+        <v>0.03198077002995629</v>
       </c>
       <c r="L21" t="n">
-        <v>10.31018239680416</v>
+        <v>13.13296260200121</v>
       </c>
       <c r="M21" t="n">
-        <v>8.734055514238859</v>
+        <v>13.16097130531932</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2145617532655328</v>
+        <v>0.2349337386854427</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04742642748906738</v>
+        <v>0.03301388386454051</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'n_estimators': 55, 'max_depth': 6, 'min_samples_split': 4, 'min_samples_leaf': 20, 'max_features': 0.8, 'bootstrap': True, 'criterion': 'squared_error'}</t>
+          <t>{'n_estimators': 57, 'max_depth': 12, 'min_samples_split': 17, 'min_samples_leaf': 18, 'max_features': 0.2, 'bootstrap': False, 'criterion': 'absolute_error'}</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1742,36 +1742,36 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.35230070424775145, 'epsilon': 7.751419707674408e-06, 'gamma_choice': 'auto', 'coef0': -0.30743177059017857, 'shrinking': True}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.8451227546523431</v>
+        <v>0.8938513863400495</v>
       </c>
       <c r="I22" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8451227546523431</v>
+        <v>0.8938513863400495</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02991825135553185</v>
+        <v>0.03288961383061035</v>
       </c>
       <c r="L22" t="n">
-        <v>1.652371316320884</v>
+        <v>1.180900613998791</v>
       </c>
       <c r="M22" t="n">
-        <v>0.202534366674922</v>
+        <v>0.05729835638016507</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1480611831211874</v>
+        <v>0.09851875456290936</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008492008186287831</v>
+        <v>0.009392861297179467</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.35230070424775145, 'gamma': 'auto', 'epsilon': 7.751419707674408e-06, 'coef0': -0.30743177059017857, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -1802,36 +1802,36 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.3287863428777476, 'epsilon': 1.4818831326477788e-05, 'gamma_choice': 'scale', 'coef0': -0.538141705410821, 'shrinking': True}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.8433970032719503</v>
+        <v>0.8996987260093315</v>
       </c>
       <c r="I23" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8433970032719503</v>
+        <v>0.8996987260093315</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0871846056354677</v>
+        <v>0.09865928120769854</v>
       </c>
       <c r="L23" t="n">
-        <v>1.956667105610299</v>
+        <v>1.388531086526061</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4275455396792867</v>
+        <v>0.1307440143633465</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1520422307088823</v>
+        <v>0.09656399929658559</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02315311963595655</v>
+        <v>0.02675474456057663</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.3287863428777476, 'gamma': 'scale', 'epsilon': 1.4818831326477788e-05, 'coef0': -0.538141705410821, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -1862,36 +1862,36 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.21139076078102745, 'epsilon': 5.978231336303152e-06, 'gamma_choice': 'scale', 'coef0': -0.4531960191299992, 'shrinking': True}</t>
+          <t>{'kernel': 'linear', 'C': 0.0011499655509535102, 'epsilon': 3.603384032152629e-06, 'gamma_choice': 'scale', 'coef0': -0.48472133575764564, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.8588999324567802</v>
+        <v>0.8713678624868395</v>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8588999324567802</v>
+        <v>0.8713678624868395</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1118889735828927</v>
+        <v>0.1229216928967049</v>
       </c>
       <c r="L24" t="n">
-        <v>1.557844551347287</v>
+        <v>1.329122563254134</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2150530386919809</v>
+        <v>0.148537671891463</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1280475544719849</v>
+        <v>0.119178520205641</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03313894494097047</v>
+        <v>0.03924254174352875</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.21139076078102745, 'gamma': 'scale', 'epsilon': 5.978231336303152e-06, 'coef0': -0.4531960191299992, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'linear', 'C': 0.0011499655509535102, 'gamma': 'scale', 'epsilon': 3.603384032152629e-06, 'coef0': -0.48472133575764564, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -1922,36 +1922,36 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.22453698260657107, 'epsilon': 3.317648491240437e-05, 'gamma_choice': 'scale', 'coef0': -0.23779571627151505, 'shrinking': True}</t>
+          <t>{'kernel': 'linear', 'C': 0.0011499655509535102, 'epsilon': 3.603384032152629e-06, 'gamma_choice': 'scale', 'coef0': -0.48472133575764564, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.8498606355389832</v>
+        <v>0.8610489793021388</v>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8498606355389832</v>
+        <v>0.8610489793021388</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04240162536157204</v>
+        <v>0.04940379194208405</v>
       </c>
       <c r="L25" t="n">
-        <v>1.854073498980245</v>
+        <v>1.530267390468592</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3030092218337</v>
+        <v>0.3178397489818202</v>
       </c>
       <c r="N25" t="n">
-        <v>0.1487791451020275</v>
+        <v>0.1369713534714458</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02174565454776201</v>
+        <v>0.009523679310822262</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.22453698260657107, 'gamma': 'scale', 'epsilon': 3.317648491240437e-05, 'coef0': -0.23779571627151505, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'linear', 'C': 0.0011499655509535102, 'gamma': 'scale', 'epsilon': 3.603384032152629e-06, 'coef0': -0.48472133575764564, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -1982,36 +1982,36 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.2144666527634061, 'epsilon': 5.09308766972865e-05, 'gamma_choice': 'scale', 'coef0': 0.19659173375221112, 'shrinking': True}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'epsilon': 4.956947932799957e-06, 'gamma_choice': 'scale', 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False}</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.7968615424157307</v>
+        <v>0.8493970675543329</v>
       </c>
       <c r="I26" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7968615424157307</v>
+        <v>0.8493970675543329</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02729595900773901</v>
+        <v>0.02297451882202292</v>
       </c>
       <c r="L26" t="n">
-        <v>8.896247420933159</v>
+        <v>6.653195650834899</v>
       </c>
       <c r="M26" t="n">
-        <v>5.580582786277521</v>
+        <v>3.961418421128302</v>
       </c>
       <c r="N26" t="n">
-        <v>0.19787078641045</v>
+        <v>0.1472404130126205</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01108898876834409</v>
+        <v>0.01109045117859713</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'kernel': 'sigmoid', 'C': 0.2144666527634061, 'gamma': 'scale', 'epsilon': 5.09308766972865e-05, 'coef0': 0.19659173375221112, 'degree': 3, 'shrinking': True, 'max_iter': 1000000}</t>
+          <t>{'kernel': 'poly', 'C': 0.020025747803671577, 'gamma': 'scale', 'epsilon': 4.956947932799957e-06, 'coef0': -0.8728832994279527, 'degree': 3, 'shrinking': False, 'max_iter': 1000000}</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2042,36 +2042,36 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'n_estimators': 235, 'max_depth': 3, 'learning_rate': 0.0069666444515065346, 'subsample': 0.9648453000953419, 'colsample_bytree': 0.43832629477828994, 'colsample_bylevel': 0.692200464594403, 'gamma': 0.4745876303848796, 'min_child_weight': 0.0052118564523263725, 'reg_alpha': 0.4574747313585391, 'reg_lambda': 2.244226246252965e-08, 'booster': 'dart', 'tree_method': 'hist'}</t>
+          <t>{'n_estimators': 377, 'max_depth': 2, 'learning_rate': 0.005520350166411621, 'subsample': 0.9947195721438932, 'colsample_bytree': 0.6274971355695148, 'colsample_bylevel': 0.9110887722025167, 'gamma': 3.168352112576232, 'min_child_weight': 0.3056058157685993, 'reg_alpha': 0.00010182490737157861, 'reg_lambda': 4.495034859562792e-05, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.7869871956140969</v>
+        <v>0.7711475907637814</v>
       </c>
       <c r="I27" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7869871956140969</v>
+        <v>0.7711475907637814</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02504925197579138</v>
+        <v>0.019594322060491</v>
       </c>
       <c r="L27" t="n">
-        <v>1.541204771484801</v>
+        <v>1.447377804554337</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1943726013356549</v>
+        <v>0.1545896597653964</v>
       </c>
       <c r="N27" t="n">
-        <v>0.206562986381255</v>
+        <v>0.222768607706296</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02093840802785135</v>
+        <v>0.02058465426398303</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'n_estimators': 235, 'max_depth': 3, 'learning_rate': 0.0069666444515065346, 'subsample': 0.9648453000953419, 'colsample_bytree': 0.43832629477828994, 'colsample_bylevel': 0.692200464594403, 'gamma': 0.4745876303848796, 'min_child_weight': 0.0052118564523263725, 'reg_alpha': 0.4574747313585391, 'reg_lambda': 2.244226246252965e-08, 'booster': 'dart', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 377, 'max_depth': 2, 'learning_rate': 0.005520350166411621, 'subsample': 0.9947195721438932, 'colsample_bytree': 0.6274971355695148, 'colsample_bylevel': 0.9110887722025167, 'gamma': 3.168352112576232, 'min_child_weight': 0.3056058157685993, 'reg_alpha': 0.00010182490737157861, 'reg_lambda': 4.495034859562792e-05, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2102,36 +2102,36 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'n_estimators': 121, 'max_depth': 8, 'learning_rate': 0.049699248487562936, 'subsample': 0.6284446583624685, 'colsample_bytree': 0.740850281730517, 'colsample_bylevel': 0.9283285712599257, 'gamma': 6.430002522260205, 'min_child_weight': 0.551242720822112, 'reg_alpha': 8.255030628079501e-05, 'reg_lambda': 0.0018646554664663838, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
+          <t>{'n_estimators': 490, 'max_depth': 6, 'learning_rate': 0.030240963997002823, 'subsample': 0.9746344082126268, 'colsample_bytree': 0.700537294785595, 'colsample_bylevel': 0.6440171895254074, 'gamma': 6.872511320877258, 'min_child_weight': 0.10129668410960048, 'reg_alpha': 0.00022098744264097077, 'reg_lambda': 2.995710376987626e-07, 'booster': 'dart', 'tree_method': 'approx'}</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8014479344046852</v>
+        <v>0.8064392031952917</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8014479344046852</v>
+        <v>0.8064392031952917</v>
       </c>
       <c r="K28" t="n">
-        <v>0.09282107832496149</v>
+        <v>0.08428217802194618</v>
       </c>
       <c r="L28" t="n">
-        <v>1.739895099735391</v>
+        <v>1.444949795682709</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2770441816220003</v>
+        <v>0.1099337184057319</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1947128167452576</v>
+        <v>0.1890422501344645</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04890268466121082</v>
+        <v>0.04005306440568814</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'n_estimators': 121, 'max_depth': 8, 'learning_rate': 0.049699248487562936, 'subsample': 0.6284446583624685, 'colsample_bytree': 0.740850281730517, 'colsample_bylevel': 0.9283285712599257, 'gamma': 6.430002522260205, 'min_child_weight': 0.551242720822112, 'reg_alpha': 8.255030628079501e-05, 'reg_lambda': 0.0018646554664663838, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 490, 'max_depth': 6, 'learning_rate': 0.030240963997002823, 'subsample': 0.9746344082126268, 'colsample_bytree': 0.700537294785595, 'colsample_bylevel': 0.6440171895254074, 'gamma': 6.872511320877258, 'min_child_weight': 0.10129668410960048, 'reg_alpha': 0.00022098744264097077, 'reg_lambda': 2.995710376987626e-07, 'booster': 'dart', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2162,36 +2162,36 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>{'n_estimators': 142, 'max_depth': 8, 'learning_rate': 0.03287411811126145, 'subsample': 0.4429280904522769, 'colsample_bytree': 0.7469687983349775, 'colsample_bylevel': 0.8512657078317415, 'gamma': 6.003374443754199, 'min_child_weight': 0.005156211068347959, 'reg_alpha': 0.13209896776551622, 'reg_lambda': 3.6293737137802057e-07, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
+          <t>{'n_estimators': 76, 'max_depth': 4, 'learning_rate': 0.012561043700013555, 'subsample': 0.602361513049481, 'colsample_bytree': 0.5038603981386294, 'colsample_bylevel': 0.7282970263056656, 'gamma': 1.3949386065204183, 'min_child_weight': 0.01474275315991467, 'reg_alpha': 1.9826980964985924e-05, 'reg_lambda': 0.00012724181576752517, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.813065376067994</v>
+        <v>0.8264935509092678</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>0.813065376067994</v>
+        <v>0.8264935509092678</v>
       </c>
       <c r="K29" t="n">
-        <v>0.09375368971106721</v>
+        <v>0.1049181160000189</v>
       </c>
       <c r="L29" t="n">
-        <v>1.668656109356861</v>
+        <v>1.379434343491196</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1129178015147136</v>
+        <v>0.05016261645727615</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1733750862889767</v>
+        <v>0.1636723132804718</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01675583429764993</v>
+        <v>0.01214729780502263</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'n_estimators': 142, 'max_depth': 8, 'learning_rate': 0.03287411811126145, 'subsample': 0.4429280904522769, 'colsample_bytree': 0.7469687983349775, 'colsample_bylevel': 0.8512657078317415, 'gamma': 6.003374443754199, 'min_child_weight': 0.005156211068347959, 'reg_alpha': 0.13209896776551622, 'reg_lambda': 3.6293737137802057e-07, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 76, 'max_depth': 4, 'learning_rate': 0.012561043700013555, 'subsample': 0.602361513049481, 'colsample_bytree': 0.5038603981386294, 'colsample_bylevel': 0.7282970263056656, 'gamma': 1.3949386065204183, 'min_child_weight': 0.01474275315991467, 'reg_alpha': 1.9826980964985924e-05, 'reg_lambda': 0.00012724181576752517, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -2222,36 +2222,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'n_estimators': 179, 'max_depth': 7, 'learning_rate': 0.016418390799027655, 'subsample': 0.7394189127405425, 'colsample_bytree': 0.7853441222725355, 'colsample_bylevel': 0.7795889624404623, 'gamma': 6.736248461916689, 'min_child_weight': 0.05567013404616536, 'reg_alpha': 0.32525317608028614, 'reg_lambda': 0.39773688078320824, 'booster': 'gbtree', 'tree_method': 'approx'}</t>
+          <t>{'n_estimators': 139, 'max_depth': 12, 'learning_rate': 0.023100486524042573, 'subsample': 0.9926228788724805, 'colsample_bytree': 0.6727508041213275, 'colsample_bylevel': 0.8481889599815247, 'gamma': 2.2802813427045856, 'min_child_weight': 0.0065536082454758, 'reg_alpha': 7.740014089755407e-05, 'reg_lambda': 0.0006309770986867685, 'booster': 'gbtree', 'tree_method': 'hist'}</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.811514598007268</v>
+        <v>0.8149938267572439</v>
       </c>
       <c r="I30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>0.811514598007268</v>
+        <v>0.8149938267572439</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0532127117235567</v>
+        <v>0.06242194997147824</v>
       </c>
       <c r="L30" t="n">
-        <v>1.620115260975679</v>
+        <v>1.927801543504224</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2634495706458497</v>
+        <v>0.2393917014627111</v>
       </c>
       <c r="N30" t="n">
-        <v>0.186404849832183</v>
+        <v>0.1795402001978852</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0145027515328353</v>
+        <v>0.02811536160463016</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'n_estimators': 179, 'max_depth': 7, 'learning_rate': 0.016418390799027655, 'subsample': 0.7394189127405425, 'colsample_bytree': 0.7853441222725355, 'colsample_bylevel': 0.7795889624404623, 'gamma': 6.736248461916689, 'min_child_weight': 0.05567013404616536, 'reg_alpha': 0.32525317608028614, 'reg_lambda': 0.39773688078320824, 'booster': 'gbtree', 'tree_method': 'approx', 'random_state': 42, 'verbosity': 0}</t>
+          <t>{'n_estimators': 139, 'max_depth': 12, 'learning_rate': 0.023100486524042573, 'subsample': 0.9926228788724805, 'colsample_bytree': 0.6727508041213275, 'colsample_bylevel': 0.8481889599815247, 'gamma': 2.2802813427045856, 'min_child_weight': 0.0065536082454758, 'reg_alpha': 7.740014089755407e-05, 'reg_lambda': 0.0006309770986867685, 'booster': 'gbtree', 'tree_method': 'hist', 'random_state': 42, 'verbosity': 0}</t>
         </is>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-01-26_10-44</t>
+          <t>2026-01-26_17-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2286,28 +2286,28 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.7679774997450379</v>
+        <v>0.7603471472149588</v>
       </c>
       <c r="I31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7679774997450379</v>
+        <v>0.7603471472149588</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0241598401146674</v>
+        <v>0.01470762032457586</v>
       </c>
       <c r="L31" t="n">
-        <v>13.86979426703989</v>
+        <v>13.60660840757364</v>
       </c>
       <c r="M31" t="n">
-        <v>15.17095717228193</v>
+        <v>14.7143281131979</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2238723025340255</v>
+        <v>0.2328292244725931</v>
       </c>
       <c r="O31" t="n">
-        <v>0.03227546606421297</v>
+        <v>0.02750986128597075</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
